--- a/购车/摩托车对比.xlsx
+++ b/购车/摩托车对比.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F11EB73-749A-4A2B-B896-0B8BAC3249F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,159 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>万元摩托车性能对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑫源 迅龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单杠 风冷 2气门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.2：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际排量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>249cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缸径X行程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72X75mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.5Kw/7000rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.5N·m/5500rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大扭矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>840mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>260mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离地间隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整备重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新大洲本田 CBF190X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.8/8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.3/7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>770mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年折损率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅马哈飞致150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗申赛科龙RX1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +200,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +490,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8800</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/购车/摩托车对比.xlsx
+++ b/购车/摩托车对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F11EB73-749A-4A2B-B896-0B8BAC3249F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C1C563-214D-4ADD-9669-2B0FB640784B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>万元摩托车性能对比</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,7 +147,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宗申赛科龙RX1</t>
+    <t>宗申赛科龙RX1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12580-15580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单杠 水冷 平衡轴式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/8500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.5/7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>780mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>169kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制动系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后碟刹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高车速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际五档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,6 +259,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -494,7 +546,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -503,59 +555,59 @@
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -569,6 +621,9 @@
       <c r="C4" s="1">
         <v>14813</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -577,6 +632,9 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -612,6 +670,9 @@
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -623,6 +684,9 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -634,6 +698,9 @@
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -642,6 +709,9 @@
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -650,6 +720,9 @@
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -658,6 +731,9 @@
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E14" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -667,18 +743,39 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O2"/>

--- a/购车/摩托车对比.xlsx
+++ b/购车/摩托车对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C1C563-214D-4ADD-9669-2B0FB640784B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1F1D9B-7037-4617-BAEF-A586829677EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>万元摩托车性能对比</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,18 +123,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新大洲本田 CBF190X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11.8/8000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15.3/7000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>770mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,6 +188,130 @@
   </si>
   <si>
     <t>国际五档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新大洲本田 CBF190X-战鹰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳NH T200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全车灯组LED光源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">单缸 风冷 2气门 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.3/7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电喷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGM-FI电喷系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机优点：风冷单缸技术成熟，省油耐用，适合看重动力可靠性的车友，缺点：动力平台陈旧，风冷技术落后于时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单缸 水冷 4气门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>183cc四冲程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.5Kw/8500rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.7Nm/7500rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIEMENS电喷系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡轴，针刺型缸套，带滚针轴承摇臂等技术
+引擎调校侧重中低转速动力输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">轻量化阀门系统，气缸偏移设计，滚柱摇臂，水泵，凸轮轴同轴驱动
+引擎调校侧重中高转速动力输出
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：水冷单缸技术领先于风冷单缸，散热性能出色，适合长途摩旅车友 缺点：动力平台耐用性尚待验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前：单碟盘配双活塞卡钳后：单碟盘
+配单活塞卡钳，单前轮ABS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前110/70-17寸，后140/170-17寸
+真空轮胎+铝合金轮毂
+真空轮胎防止爆胎，规格较宽的轮胎提高了抓地与稳定性
+上泵 卡钳采用NISSIN品牌，整车制动性能有保证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前100/90-19寸，后130/80-17寸
+非真空轮胎+非钢丝辐条轮毂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前单碟盘配双活塞卡钳、后单碟盘配单活塞卡钳，前后双ABS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受制于排量的气缸尺寸不大，气缸周围区域显得比较空荡，车头与油箱位置延伸下来的护板盖住了整个气缸，遮挡住了气缸周围空旷区域。外观缺点:整车显得过于笨重，缺少灵活性；排气筒长度过短；车头、车尾、液晶仪表盘设计单调；缺少发动机保护杠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾灯组不是LED光源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观优点:车头的小鸟嘴，发动机两侧保护杠与底部护板，前大后小钢丝辐条轮毂，上翘的排气筒都体现出了它的车型定位。外观缺点:水冷引擎增加了水箱、风扇、散热器、冷却水管等相关部件，气缸四周管路与线路繁多拥挤，而从车头与油箱位置延伸下来的护板面积不够大，没有盖住整个气缸周围区域，观感上极为散乱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +343,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,6 +386,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -543,56 +675,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -602,13 +735,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -622,7 +758,7 @@
         <v>14813</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -632,150 +768,242 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.1</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O2"/>

--- a/购车/摩托车对比.xlsx
+++ b/购车/摩托车对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1F1D9B-7037-4617-BAEF-A586829677EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03908986-CD6A-42D1-99A6-5C981DF6B76E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>万元摩托车性能对比</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>外观优点:车头的小鸟嘴，发动机两侧保护杠与底部护板，前大后小钢丝辐条轮毂，上翘的排气筒都体现出了它的车型定位。外观缺点:水冷引擎增加了水箱、风扇、散热器、冷却水管等相关部件，气缸四周管路与线路繁多拥挤，而从车头与油箱位置延伸下来的护板面积不够大，没有盖住整个气缸周围区域，观感上极为散乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4气门相比2气门，进气量增大，相应压缩比提高，压缩比越高对油品要求越高，如果加低于官方指定的标号，就会出现爆震，同时高压缩比的发动机对散热要求很高，如果散热不佳，就会出现热衰现象，同时高压缩比会压榨发动机的动力，影响发动机的使用寿命，后期发动机出现故障的几率要大一些
+2.热衰出现的原因：转速，负荷与应该达到合理散热的车速不匹配（路况+档位+速度）换挡和看转速
+3.扭矩代表发动机性能和提速，车子到5000转的时候，提供的扭矩如果是100，和另外一个车子到7000转的时候，提供的扭矩才是100，明显前者提速块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,12 +357,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -371,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,14 +398,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,40 +713,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -778,24 +799,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="9"/>
       <c r="F6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -803,7 +825,7 @@
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -811,7 +833,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -835,7 +857,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -852,7 +874,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -908,10 +930,10 @@
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -938,13 +960,13 @@
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -990,23 +1012,115 @@
       <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A27:F38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/购车/摩托车对比.xlsx
+++ b/购车/摩托车对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03908986-CD6A-42D1-99A6-5C981DF6B76E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B3D9D2-47C7-4977-A50E-4C80613AB118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="166">
   <si>
     <t>万元摩托车性能对比</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>鑫源 迅龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发动机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -318,6 +314,380 @@
     <t>1.4气门相比2气门，进气量增大，相应压缩比提高，压缩比越高对油品要求越高，如果加低于官方指定的标号，就会出现爆震，同时高压缩比的发动机对散热要求很高，如果散热不佳，就会出现热衰现象，同时高压缩比会压榨发动机的动力，影响发动机的使用寿命，后期发动机出现故障的几率要大一些
 2.热衰出现的原因：转速，负荷与应该达到合理散热的车速不匹配（路况+档位+速度）换挡和看转速
 3.扭矩代表发动机性能和提速，车子到5000转的时候，提供的扭矩如果是100，和另外一个车子到7000转的时候，提供的扭矩才是100，明显前者提速块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春风150NK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低配版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10680元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单缸、四冲程、水冷、立式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>149cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缸径X形成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57mmX58.5mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.5:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大扭矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.7N.m/7000rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8kw/8500rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点火方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6挡变速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃油供给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高车速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100km/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长宽高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025mmX770mmX1070mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆轴距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1360mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小离地间隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整车整备质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大有效载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油箱容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆底盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制动方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液压盘式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮毂规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前：2.5X17 铝合金 后：3.5X17 铝合金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮胎规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前：100X80R17 M/C 后：130X70R17 M/C 铝合金、130/70-17M/C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝纳利小迅龙150s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11980元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.8kw/9000rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单缸、四气门三火花塞、水冷、SOHC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57 x 58.7 mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.25:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.5N·m/7000rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子燃油喷射</t>
+  </si>
+  <si>
+    <t>电子燃油喷射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排放阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国四</t>
+  </si>
+  <si>
+    <t>国四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电启动</t>
+  </si>
+  <si>
+    <t>电启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离合器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿式多片式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润滑方式</t>
+  </si>
+  <si>
+    <t>飞溅式润滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菱形车架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170 mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145Kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1345 mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020X780mmX1070mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前：100/80-17 后：130/80-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前：17-inch 铝合金 后：17-inch 铝合金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前：260mm 单碟 双活塞 卡钳 后：240mm 单碟 双活塞 卡钳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前：减震行程120mm 倒置式伸缩前减震 后：后减震行程27mm 伸缩式螺旋弹簧阻尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅马哈飞致150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11800元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单缸、四冲程、风冷、SOHC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57.3mm×57.9mm</t>
+  </si>
+  <si>
+    <t>9.6:1</t>
+  </si>
+  <si>
+    <t>13.0Nm/6000r/min</t>
+  </si>
+  <si>
+    <t>9.5kW/7500r/min</t>
+  </si>
+  <si>
+    <t>前：2.75-18M/C 42P 后：100/80-18M/C 59P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1330mm</t>
+  </si>
+  <si>
+    <t>TCI</t>
+  </si>
+  <si>
+    <t>14L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>795mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015mm×745mm×1095mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪爵铃木EN150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.减震漏油、仪表盘容易坏（更换一个需要1500元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪爵DR160s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +737,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,17 +810,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:F38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,45 +1167,56 @@
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="35.75" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="23.75" customWidth="1"/>
+    <col min="13" max="13" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -756,21 +1224,38 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
         <v>8800</v>
@@ -779,348 +1264,889 @@
         <v>14813</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="G11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="J12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="G13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="G14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="G15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="G16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="J17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="J18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
+      <c r="B19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="J19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="C20" s="8"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="J21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="G22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="G23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+    </row>
+    <row r="25" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="G25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="G26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="G27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="G28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="G29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+    </row>
+    <row r="30" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="G30" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+    </row>
+    <row r="31" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="G31" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="G32" s="13"/>
+      <c r="J32" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+    </row>
+    <row r="33" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24"/>
+      <c r="B34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="36" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+    </row>
+    <row r="37" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+    </row>
+    <row r="38" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+    </row>
+    <row r="39" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="9"/>
-      <c r="F6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="C46" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C48" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="C49" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="E49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="E50" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="C54" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A27:F38"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="A55:F66"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/购车/摩托车对比.xlsx
+++ b/购车/摩托车对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B3D9D2-47C7-4977-A50E-4C80613AB118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F52354-05D2-4D53-ABE1-46B6A9DA8194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="174">
   <si>
     <t>万元摩托车性能对比</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,10 +617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11800元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单缸、四冲程、风冷、SOHC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -688,6 +684,42 @@
   </si>
   <si>
     <t>豪爵DR160s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新大洲本田CBF190R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15980-16880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16380-16680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新大洲本田CBF190X（旅行版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五羊本田暴锋眼CB190R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16580-17780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五羊本田猛鸷CB190X（旅行版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16980-19980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11800-12280</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,56 +854,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1174,47 +1209,51 @@
     <col min="11" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="23.75" customWidth="1"/>
     <col min="13" max="13" width="21.75" customWidth="1"/>
+    <col min="14" max="14" width="23.75" customWidth="1"/>
+    <col min="15" max="15" width="27.625" customWidth="1"/>
+    <col min="16" max="16" width="20.75" customWidth="1"/>
+    <col min="17" max="17" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1235,22 +1274,34 @@
       <c r="F3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="18" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="M3" s="28" t="s">
+      <c r="L3" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>165</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1269,10 +1320,26 @@
       <c r="G4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="J4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1290,17 +1357,15 @@
       <c r="G5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="26" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1312,14 +1377,18 @@
       <c r="J6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="K6" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
@@ -1332,11 +1401,15 @@
       <c r="K7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
@@ -1346,14 +1419,18 @@
       <c r="J8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="K8" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="1" t="s">
         <v>80</v>
       </c>
@@ -1363,14 +1440,18 @@
       <c r="J9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="K9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>82</v>
       </c>
@@ -1384,14 +1465,18 @@
       <c r="J10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="K10" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="1" t="s">
         <v>84</v>
       </c>
@@ -1402,14 +1487,18 @@
       <c r="J11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K11" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="K11" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="1" t="s">
         <v>127</v>
       </c>
@@ -1417,14 +1506,18 @@
       <c r="J12" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="1" t="s">
         <v>86</v>
       </c>
@@ -1435,14 +1528,18 @@
       <c r="J13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K13" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="K13" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>88</v>
       </c>
@@ -1453,12 +1550,16 @@
       <c r="J14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="1" t="s">
         <v>90</v>
       </c>
@@ -1469,14 +1570,18 @@
       <c r="J15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="1" t="s">
         <v>92</v>
       </c>
@@ -1485,12 +1590,16 @@
         <v>93</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
         <v>124</v>
       </c>
@@ -1498,14 +1607,18 @@
       <c r="J17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
       <c r="B18" s="1" t="s">
         <v>130</v>
       </c>
@@ -1513,12 +1626,16 @@
       <c r="J18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
       <c r="B19" s="1" t="s">
         <v>132</v>
       </c>
@@ -1526,20 +1643,28 @@
       <c r="J19" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
       <c r="C20" s="8"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
         <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1549,12 +1674,16 @@
       <c r="J21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
       <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
@@ -1565,14 +1694,18 @@
       <c r="J22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K22" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
+      <c r="K22" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
       <c r="B23" s="1" t="s">
         <v>97</v>
       </c>
@@ -1583,27 +1716,34 @@
       <c r="J23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
+      <c r="K23" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
       <c r="B24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="8"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-    </row>
-    <row r="25" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+      <c r="K24" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
       <c r="B25" s="1" t="s">
         <v>99</v>
       </c>
@@ -1614,12 +1754,15 @@
       <c r="J25" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-    </row>
-    <row r="26" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
       <c r="B26" s="1" t="s">
         <v>101</v>
       </c>
@@ -1630,14 +1773,14 @@
       <c r="J26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K26" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-    </row>
-    <row r="27" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="K26" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
       <c r="B27" s="1" t="s">
         <v>103</v>
       </c>
@@ -1646,12 +1789,12 @@
         <v>104</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-    </row>
-    <row r="28" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
       <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
@@ -1662,14 +1805,14 @@
       <c r="J28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K28" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-    </row>
-    <row r="29" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="K28" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:17" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
         <v>107</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1679,98 +1822,98 @@
       <c r="G29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-    </row>
-    <row r="30" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
       <c r="B30" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="12" t="s">
         <v>111</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-    </row>
-    <row r="31" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
       <c r="B31" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="12" t="s">
         <v>113</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K31" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-    </row>
-    <row r="32" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="K31" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
       <c r="B32" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C32" s="8"/>
-      <c r="G32" s="13"/>
-      <c r="J32" s="20" t="s">
+      <c r="G32" s="12"/>
+      <c r="J32" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
     </row>
     <row r="33" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="29"/>
+      <c r="B34" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-    </row>
-    <row r="34" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="6" t="s">
@@ -1781,9 +1924,9 @@
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
     </row>
     <row r="36" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="6" t="s">
@@ -1794,8 +1937,8 @@
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
     </row>
     <row r="37" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -1807,8 +1950,8 @@
       <c r="F37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
     </row>
     <row r="38" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
@@ -1817,8 +1960,8 @@
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
     </row>
     <row r="39" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -1827,7 +1970,7 @@
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L39" s="20"/>
+      <c r="L39" s="15"/>
     </row>
     <row r="40" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -1836,7 +1979,7 @@
       <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L40" s="20"/>
+      <c r="L40" s="15"/>
     </row>
     <row r="41" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
@@ -1854,7 +1997,7 @@
       <c r="F41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="20"/>
+      <c r="L41" s="15"/>
     </row>
     <row r="42" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
@@ -1872,7 +2015,7 @@
       <c r="F42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L42" s="20"/>
+      <c r="L42" s="15"/>
     </row>
     <row r="43" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -1887,7 +2030,7 @@
       <c r="E43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="20"/>
+      <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -1899,7 +2042,7 @@
       <c r="E44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L44" s="20"/>
+      <c r="L44" s="15"/>
     </row>
     <row r="45" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1911,7 +2054,7 @@
       <c r="E45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L45" s="20"/>
+      <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1925,7 +2068,7 @@
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
-      <c r="L46" s="20"/>
+      <c r="L46" s="15"/>
     </row>
     <row r="47" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1937,7 +2080,7 @@
       <c r="E47" s="1">
         <v>14</v>
       </c>
-      <c r="L47" s="20"/>
+      <c r="L47" s="15"/>
     </row>
     <row r="48" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1946,7 +2089,7 @@
       <c r="C48" s="3">
         <v>0.1</v>
       </c>
-      <c r="L48" s="20"/>
+      <c r="L48" s="15"/>
     </row>
     <row r="49" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1963,7 +2106,7 @@
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
-      <c r="L49" s="20"/>
+      <c r="L49" s="15"/>
     </row>
     <row r="50" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -2017,124 +2160,124 @@
       <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
     </row>
